--- a/doc/user stories/user_stories.xlsx
+++ b/doc/user stories/user_stories.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elavram\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elavram\Documents\COLLEGE\api-2022.1\doc\user stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0E11A4-8D7E-493C-A03B-A7F66F403C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36018E48-AA29-4A5E-A4C8-BE0191A42B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,9 +367,6 @@
     <t>Atender novas demandas de funções</t>
   </si>
   <si>
-    <t>Cadastrar novos cargos</t>
-  </si>
-  <si>
     <t>#1</t>
   </si>
   <si>
@@ -407,6 +404,9 @@
   </si>
   <si>
     <t>#10</t>
+  </si>
+  <si>
+    <t>Cadastrar novos cargos e departamentos</t>
   </si>
 </sst>
 </file>
@@ -812,7 +812,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -827,7 +827,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="2" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>9</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="3" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
@@ -899,7 +899,7 @@
         <v>22</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>15</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="4" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>25</v>
@@ -919,7 +919,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>9</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="5" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>5</v>
@@ -939,7 +939,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>15</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="6" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>6</v>
@@ -959,7 +959,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>15</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="7" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>4</v>
@@ -979,7 +979,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>15</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="8" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>4</v>
@@ -999,7 +999,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>9</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="9" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>6</v>
@@ -1019,7 +1019,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>15</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="10" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>7</v>
@@ -1039,7 +1039,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>15</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="11" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>5</v>
@@ -1056,10 +1056,10 @@
         <v>29</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>15</v>
